--- a/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_1_site_202105.xlsx
+++ b/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_1_site_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562996D3-0A6F-4705-96A2-EE21D4650BE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2CD5DB-9382-45A5-8FB8-9872889EDAA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -681,9 +681,6 @@
     <t>ci_lf_pretas_1_site_202105_v2</t>
   </si>
   <si>
-    <t>1. Côte d'Ivoire - Pre TAS FL Fromulaire Site V2</t>
-  </si>
-  <si>
     <t>Autre</t>
   </si>
   <si>
@@ -955,6 +952,9 @@
   </si>
   <si>
     <t>Type Dest</t>
+  </si>
+  <si>
+    <t>(May 2021) 1. Côte d'Ivoire - Pre TAS FL Fromulaire Site V2</t>
   </si>
 </sst>
 </file>
@@ -1377,11 +1377,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1627,11 +1627,11 @@
         <v>205</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="8"/>
@@ -1639,7 +1639,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="4" t="s">
@@ -1656,22 +1656,22 @@
         <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" t="s">
         <v>285</v>
       </c>
-      <c r="F9" t="s">
-        <v>286</v>
-      </c>
       <c r="K9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M9" t="s">
         <v>56</v>
@@ -1679,25 +1679,25 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" t="s">
         <v>291</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>286</v>
+      </c>
+      <c r="K10" t="s">
         <v>301</v>
-      </c>
-      <c r="E10" t="s">
-        <v>292</v>
-      </c>
-      <c r="F10" t="s">
-        <v>287</v>
-      </c>
-      <c r="K10" t="s">
-        <v>302</v>
       </c>
       <c r="M10" t="s">
         <v>56</v>
@@ -1795,14 +1795,14 @@
         <v>45</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1939,8 +1939,8 @@
   <dimension ref="A1:H323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J258" sqref="J258:K323"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A258" sqref="A258:F323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4275,13 +4275,13 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C124" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D124" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="12" t="s">
@@ -4296,13 +4296,13 @@
         <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C125" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D125" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="12" t="s">
@@ -4317,13 +4317,13 @@
         <v>44</v>
       </c>
       <c r="B126" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C126" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D126" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="12" t="s">
@@ -4338,13 +4338,13 @@
         <v>44</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C127" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D127" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="12" t="s">
@@ -4359,13 +4359,13 @@
         <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C128" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D128" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="12" t="s">
@@ -4380,13 +4380,13 @@
         <v>44</v>
       </c>
       <c r="B129" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C129" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D129" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="12" t="s">
@@ -4401,13 +4401,13 @@
         <v>44</v>
       </c>
       <c r="B130" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C130" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D130" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="12" t="s">
@@ -4422,13 +4422,13 @@
         <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="12" t="s">
@@ -4443,13 +4443,13 @@
         <v>44</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C132" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D132" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="12" t="s">
@@ -4464,13 +4464,13 @@
         <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C133" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D133" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="12" t="s">
@@ -4485,13 +4485,13 @@
         <v>44</v>
       </c>
       <c r="B134" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C134" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D134" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="12" t="s">
@@ -4506,13 +4506,13 @@
         <v>44</v>
       </c>
       <c r="B135" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C135" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D135" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="12" t="s">
@@ -4527,13 +4527,13 @@
         <v>44</v>
       </c>
       <c r="B136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="12" t="s">
@@ -4548,13 +4548,13 @@
         <v>44</v>
       </c>
       <c r="B137" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C137" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D137" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="12" t="s">
@@ -4569,13 +4569,13 @@
         <v>44</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C138" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D138" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="12" t="s">
@@ -4590,13 +4590,13 @@
         <v>44</v>
       </c>
       <c r="B139" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C139" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D139" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="12" t="s">
@@ -4611,13 +4611,13 @@
         <v>44</v>
       </c>
       <c r="B140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="12" t="s">
@@ -4632,13 +4632,13 @@
         <v>44</v>
       </c>
       <c r="B141" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C141" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D141" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="12" t="s">
@@ -4653,13 +4653,13 @@
         <v>44</v>
       </c>
       <c r="B142" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C142" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D142" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="12" t="s">
@@ -4674,13 +4674,13 @@
         <v>44</v>
       </c>
       <c r="B143" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C143" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D143" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="12" t="s">
@@ -4695,13 +4695,13 @@
         <v>44</v>
       </c>
       <c r="B144" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C144" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D144" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="12" t="s">
@@ -4716,13 +4716,13 @@
         <v>44</v>
       </c>
       <c r="B145" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C145" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D145" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="12" t="s">
@@ -4737,13 +4737,13 @@
         <v>44</v>
       </c>
       <c r="B146" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C146" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D146" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="12" t="s">
@@ -4758,13 +4758,13 @@
         <v>44</v>
       </c>
       <c r="B147" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C147" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D147" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="12" t="s">
@@ -4779,13 +4779,13 @@
         <v>44</v>
       </c>
       <c r="B148" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C148" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D148" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="12" t="s">
@@ -4800,13 +4800,13 @@
         <v>44</v>
       </c>
       <c r="B149" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C149" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D149" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="12" t="s">
@@ -4821,13 +4821,13 @@
         <v>44</v>
       </c>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="12" t="s">
@@ -4842,13 +4842,13 @@
         <v>44</v>
       </c>
       <c r="B151" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C151" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D151" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="12" t="s">
@@ -4863,13 +4863,13 @@
         <v>44</v>
       </c>
       <c r="B152" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C152" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D152" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="12" t="s">
@@ -4884,13 +4884,13 @@
         <v>44</v>
       </c>
       <c r="B153" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C153" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D153" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="12" t="s">
@@ -4905,13 +4905,13 @@
         <v>44</v>
       </c>
       <c r="B154" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C154" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D154" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="12" t="s">
@@ -4926,13 +4926,13 @@
         <v>44</v>
       </c>
       <c r="B155" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C155" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D155" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="12" t="s">
@@ -4947,13 +4947,13 @@
         <v>44</v>
       </c>
       <c r="B156" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C156" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D156" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="12" t="s">
@@ -4968,13 +4968,13 @@
         <v>44</v>
       </c>
       <c r="B157" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C157" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D157" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="12" t="s">
@@ -4989,13 +4989,13 @@
         <v>44</v>
       </c>
       <c r="B158" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C158" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D158" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="12" t="s">
@@ -5010,13 +5010,13 @@
         <v>44</v>
       </c>
       <c r="B159" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C159" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D159" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="12" t="s">
@@ -5031,13 +5031,13 @@
         <v>44</v>
       </c>
       <c r="B160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="12" t="s">
@@ -5052,13 +5052,13 @@
         <v>44</v>
       </c>
       <c r="B161" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C161" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D161" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="12" t="s">
@@ -5073,13 +5073,13 @@
         <v>44</v>
       </c>
       <c r="B162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="12" t="s">
@@ -5094,13 +5094,13 @@
         <v>44</v>
       </c>
       <c r="B163" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C163" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D163" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="12" t="s">
@@ -5115,13 +5115,13 @@
         <v>44</v>
       </c>
       <c r="B164" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C164" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D164" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="12" t="s">
@@ -5136,13 +5136,13 @@
         <v>44</v>
       </c>
       <c r="B165" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C165" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D165" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="12" t="s">
@@ -5157,13 +5157,13 @@
         <v>44</v>
       </c>
       <c r="B166" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C166" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D166" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="12" t="s">
@@ -5178,13 +5178,13 @@
         <v>44</v>
       </c>
       <c r="B167" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C167" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D167" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="12" t="s">
@@ -5199,13 +5199,13 @@
         <v>44</v>
       </c>
       <c r="B168" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C168" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D168" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="12" t="s">
@@ -5220,13 +5220,13 @@
         <v>44</v>
       </c>
       <c r="B169" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C169" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D169" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="12" t="s">
@@ -5241,13 +5241,13 @@
         <v>44</v>
       </c>
       <c r="B170" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C170" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D170" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="12" t="s">
@@ -5262,13 +5262,13 @@
         <v>44</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="12" t="s">
@@ -5283,13 +5283,13 @@
         <v>44</v>
       </c>
       <c r="B172" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C172" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D172" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="12" t="s">
@@ -5304,13 +5304,13 @@
         <v>44</v>
       </c>
       <c r="B173" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C173" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D173" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="12" t="s">
@@ -5325,13 +5325,13 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C174" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D174" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="12" t="s">
@@ -5346,13 +5346,13 @@
         <v>44</v>
       </c>
       <c r="B175" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C175" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D175" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="12" t="s">
@@ -5367,13 +5367,13 @@
         <v>44</v>
       </c>
       <c r="B176" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C176" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D176" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="12" t="s">
@@ -5388,13 +5388,13 @@
         <v>44</v>
       </c>
       <c r="B177" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C177" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D177" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="12" t="s">
@@ -5409,13 +5409,13 @@
         <v>44</v>
       </c>
       <c r="B178" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C178" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D178" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="12" t="s">
@@ -5430,13 +5430,13 @@
         <v>44</v>
       </c>
       <c r="B179" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C179" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D179" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="12" t="s">
@@ -5451,13 +5451,13 @@
         <v>44</v>
       </c>
       <c r="B180" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C180" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D180" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="12" t="s">
@@ -5472,13 +5472,13 @@
         <v>44</v>
       </c>
       <c r="B181" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C181" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D181" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="12" t="s">
@@ -5493,13 +5493,13 @@
         <v>44</v>
       </c>
       <c r="B182" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C182" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D182" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E182" s="7"/>
       <c r="F182" s="12" t="s">
@@ -5514,13 +5514,13 @@
         <v>44</v>
       </c>
       <c r="B183" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C183" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D183" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="12" t="s">
@@ -5535,13 +5535,13 @@
         <v>44</v>
       </c>
       <c r="B184" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C184" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D184" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="12" t="s">
@@ -5556,13 +5556,13 @@
         <v>44</v>
       </c>
       <c r="B185" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C185" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D185" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="12" t="s">
@@ -5577,13 +5577,13 @@
         <v>44</v>
       </c>
       <c r="B186" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C186" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D186" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="12" t="s">
@@ -5598,13 +5598,13 @@
         <v>44</v>
       </c>
       <c r="B187" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C187" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D187" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E187" s="7"/>
       <c r="F187" s="12" t="s">
@@ -5619,13 +5619,13 @@
         <v>44</v>
       </c>
       <c r="B188" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C188" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D188" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E188" s="7"/>
       <c r="F188" s="12" t="s">
@@ -5640,13 +5640,13 @@
         <v>44</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C189" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D189" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="12" t="s">
@@ -6860,16 +6860,16 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B258" s="7">
         <v>101</v>
       </c>
       <c r="C258" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D258" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E258" s="7"/>
       <c r="F258" s="12" t="s">
@@ -6881,16 +6881,16 @@
     </row>
     <row r="259" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B259" s="7">
         <v>102</v>
       </c>
       <c r="C259" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D259" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E259" s="7"/>
       <c r="F259" s="12" t="s">
@@ -6902,16 +6902,16 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B260" s="7">
         <v>103</v>
       </c>
       <c r="C260" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D260" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E260" s="7"/>
       <c r="F260" s="12" t="s">
@@ -6923,16 +6923,16 @@
     </row>
     <row r="261" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B261" s="7">
         <v>104</v>
       </c>
       <c r="C261" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D261" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E261" s="7"/>
       <c r="F261" s="12" t="s">
@@ -6944,16 +6944,16 @@
     </row>
     <row r="262" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B262" s="7">
         <v>105</v>
       </c>
       <c r="C262" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D262" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E262" s="7"/>
       <c r="F262" s="12" t="s">
@@ -6965,16 +6965,16 @@
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B263" s="7">
         <v>106</v>
       </c>
       <c r="C263" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D263" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E263" s="7"/>
       <c r="F263" s="12" t="s">
@@ -6986,16 +6986,16 @@
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B264" s="7">
         <v>107</v>
       </c>
       <c r="C264" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D264" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E264" s="7"/>
       <c r="F264" s="12" t="s">
@@ -7007,16 +7007,16 @@
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B265" s="7">
         <v>108</v>
       </c>
       <c r="C265" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D265" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E265" s="7"/>
       <c r="F265" s="12" t="s">
@@ -7028,16 +7028,16 @@
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B266" s="7">
         <v>109</v>
       </c>
       <c r="C266" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D266" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E266" s="7"/>
       <c r="F266" s="12" t="s">
@@ -7049,16 +7049,16 @@
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B267" s="7">
         <v>110</v>
       </c>
       <c r="C267" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D267" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E267" s="7"/>
       <c r="F267" s="12" t="s">
@@ -7070,16 +7070,16 @@
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B268" s="7">
         <v>111</v>
       </c>
       <c r="C268" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D268" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E268" s="7"/>
       <c r="F268" s="12" t="s">
@@ -7091,16 +7091,16 @@
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B269" s="7">
         <v>112</v>
       </c>
       <c r="C269" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D269" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E269" s="7"/>
       <c r="F269" s="12" t="s">
@@ -7112,16 +7112,16 @@
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B270" s="7">
         <v>113</v>
       </c>
       <c r="C270" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D270" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E270" s="7"/>
       <c r="F270" s="12" t="s">
@@ -7133,16 +7133,16 @@
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B271" s="7">
         <v>114</v>
       </c>
       <c r="C271" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D271" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E271" s="7"/>
       <c r="F271" s="12" t="s">
@@ -7154,16 +7154,16 @@
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B272" s="7">
         <v>115</v>
       </c>
       <c r="C272" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D272" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E272" s="7"/>
       <c r="F272" s="12" t="s">
@@ -7175,16 +7175,16 @@
     </row>
     <row r="273" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B273" s="7">
         <v>116</v>
       </c>
       <c r="C273" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D273" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E273" s="7"/>
       <c r="F273" s="12" t="s">
@@ -7196,16 +7196,16 @@
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B274" s="7">
         <v>117</v>
       </c>
       <c r="C274" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D274" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E274" s="7"/>
       <c r="F274" s="12" t="s">
@@ -7217,16 +7217,16 @@
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B275" s="7">
         <v>118</v>
       </c>
       <c r="C275" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D275" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E275" s="7"/>
       <c r="F275" s="12" t="s">
@@ -7238,16 +7238,16 @@
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B276" s="7">
         <v>119</v>
       </c>
       <c r="C276" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D276" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E276" s="7"/>
       <c r="F276" s="12" t="s">
@@ -7259,16 +7259,16 @@
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B277" s="7">
         <v>120</v>
       </c>
       <c r="C277" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D277" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E277" s="7"/>
       <c r="F277" s="12" t="s">
@@ -7280,16 +7280,16 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B278" s="7">
         <v>121</v>
       </c>
       <c r="C278" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D278" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E278" s="7"/>
       <c r="F278" s="12" t="s">
@@ -7301,16 +7301,16 @@
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B279" s="7">
         <v>122</v>
       </c>
       <c r="C279" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D279" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E279" s="7"/>
       <c r="F279" s="12" t="s">
@@ -7322,16 +7322,16 @@
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B280" s="7">
         <v>123</v>
       </c>
       <c r="C280" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D280" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E280" s="7"/>
       <c r="F280" s="12" t="s">
@@ -7343,16 +7343,16 @@
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B281" s="7">
         <v>124</v>
       </c>
       <c r="C281" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D281" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="12" t="s">
@@ -7364,16 +7364,16 @@
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B282" s="7">
         <v>125</v>
       </c>
       <c r="C282" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D282" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E282" s="7"/>
       <c r="F282" s="12" t="s">
@@ -7385,16 +7385,16 @@
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B283" s="7">
         <v>126</v>
       </c>
       <c r="C283" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D283" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E283" s="7"/>
       <c r="F283" s="12" t="s">
@@ -7406,16 +7406,16 @@
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B284" s="7">
         <v>127</v>
       </c>
       <c r="C284" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D284" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E284" s="7"/>
       <c r="F284" s="12" t="s">
@@ -7427,16 +7427,16 @@
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B285" s="7">
         <v>128</v>
       </c>
       <c r="C285" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D285" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E285" s="7"/>
       <c r="F285" s="12" t="s">
@@ -7448,16 +7448,16 @@
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B286" s="7">
         <v>129</v>
       </c>
       <c r="C286" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D286" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E286" s="7"/>
       <c r="F286" s="12" t="s">
@@ -7469,16 +7469,16 @@
     </row>
     <row r="287" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B287" s="7">
         <v>130</v>
       </c>
       <c r="C287" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D287" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E287" s="7"/>
       <c r="F287" s="12" t="s">
@@ -7490,16 +7490,16 @@
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B288" s="7">
         <v>131</v>
       </c>
       <c r="C288" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D288" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E288" s="7"/>
       <c r="F288" s="12" t="s">
@@ -7511,16 +7511,16 @@
     </row>
     <row r="289" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B289" s="7">
         <v>132</v>
       </c>
       <c r="C289" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D289" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E289" s="7"/>
       <c r="F289" s="12" t="s">
@@ -7532,16 +7532,16 @@
     </row>
     <row r="290" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B290" s="7">
         <v>133</v>
       </c>
       <c r="C290" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D290" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E290" s="7"/>
       <c r="F290" s="12" t="s">
@@ -7553,16 +7553,16 @@
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B291" s="7">
         <v>134</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E291" s="7"/>
       <c r="F291" s="12" t="s">
@@ -7574,16 +7574,16 @@
     </row>
     <row r="292" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B292" s="7">
         <v>135</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E292" s="7"/>
       <c r="F292" s="12" t="s">
@@ -7595,16 +7595,16 @@
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B293" s="7">
         <v>136</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E293" s="7"/>
       <c r="F293" s="12" t="s">
@@ -7616,16 +7616,16 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B294" s="7">
         <v>137</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E294" s="7"/>
       <c r="F294" s="12" t="s">
@@ -7637,16 +7637,16 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B295" s="7">
         <v>138</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="12" t="s">
@@ -7658,16 +7658,16 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B296" s="7">
         <v>139</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="12" t="s">
@@ -7679,16 +7679,16 @@
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B297" s="7">
         <v>140</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E297" s="7"/>
       <c r="F297" s="12" t="s">
@@ -7700,16 +7700,16 @@
     </row>
     <row r="298" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B298" s="7">
         <v>141</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E298" s="7"/>
       <c r="F298" s="12" t="s">
@@ -7721,16 +7721,16 @@
     </row>
     <row r="299" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B299" s="7">
         <v>142</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E299" s="7"/>
       <c r="F299" s="12" t="s">
@@ -7742,16 +7742,16 @@
     </row>
     <row r="300" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B300" s="7">
         <v>143</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E300" s="7"/>
       <c r="F300" s="12" t="s">
@@ -7763,16 +7763,16 @@
     </row>
     <row r="301" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B301" s="7">
         <v>144</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E301" s="7"/>
       <c r="F301" s="12" t="s">
@@ -7784,16 +7784,16 @@
     </row>
     <row r="302" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B302" s="7">
         <v>145</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E302" s="7"/>
       <c r="F302" s="12" t="s">
@@ -7805,16 +7805,16 @@
     </row>
     <row r="303" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B303" s="7">
         <v>146</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E303" s="7"/>
       <c r="F303" s="12" t="s">
@@ -7826,16 +7826,16 @@
     </row>
     <row r="304" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B304" s="7">
         <v>147</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E304" s="7"/>
       <c r="F304" s="12" t="s">
@@ -7847,16 +7847,16 @@
     </row>
     <row r="305" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B305" s="7">
         <v>148</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E305" s="7"/>
       <c r="F305" s="12" t="s">
@@ -7868,16 +7868,16 @@
     </row>
     <row r="306" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B306" s="7">
         <v>149</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E306" s="7"/>
       <c r="F306" s="12" t="s">
@@ -7889,16 +7889,16 @@
     </row>
     <row r="307" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B307" s="7">
         <v>150</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E307" s="7"/>
       <c r="F307" s="12" t="s">
@@ -7910,16 +7910,16 @@
     </row>
     <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B308" s="7">
         <v>151</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E308" s="7"/>
       <c r="F308" s="12" t="s">
@@ -7931,16 +7931,16 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B309" s="7">
         <v>152</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E309" s="7"/>
       <c r="F309" s="12" t="s">
@@ -7952,16 +7952,16 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B310" s="7">
         <v>153</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E310" s="7"/>
       <c r="F310" s="12" t="s">
@@ -7973,16 +7973,16 @@
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B311" s="7">
         <v>154</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E311" s="7"/>
       <c r="F311" s="12" t="s">
@@ -7994,16 +7994,16 @@
     </row>
     <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B312" s="7">
         <v>155</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E312" s="7"/>
       <c r="F312" s="12" t="s">
@@ -8015,16 +8015,16 @@
     </row>
     <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B313" s="7">
         <v>156</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E313" s="7"/>
       <c r="F313" s="12" t="s">
@@ -8036,16 +8036,16 @@
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B314" s="7">
         <v>157</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E314" s="7"/>
       <c r="F314" s="12" t="s">
@@ -8057,16 +8057,16 @@
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B315" s="7">
         <v>158</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E315" s="7"/>
       <c r="F315" s="12" t="s">
@@ -8078,16 +8078,16 @@
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B316" s="7">
         <v>159</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E316" s="7"/>
       <c r="F316" s="12" t="s">
@@ -8099,16 +8099,16 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B317" s="7">
         <v>160</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E317" s="7"/>
       <c r="F317" s="12" t="s">
@@ -8120,16 +8120,16 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B318" s="7">
         <v>161</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E318" s="7"/>
       <c r="F318" s="12" t="s">
@@ -8141,16 +8141,16 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B319" s="7">
         <v>162</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E319" s="7"/>
       <c r="F319" s="12" t="s">
@@ -8162,16 +8162,16 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B320" s="7">
         <v>163</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E320" s="7"/>
       <c r="F320" s="12" t="s">
@@ -8183,16 +8183,16 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B321" s="7">
         <v>164</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E321" s="7"/>
       <c r="F321" s="12" t="s">
@@ -8204,16 +8204,16 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B322" s="7">
         <v>165</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E322" s="7"/>
       <c r="F322" s="12" t="s">
@@ -8225,16 +8225,16 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B323" s="7">
         <v>166</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E323" s="7"/>
       <c r="F323" s="12" t="s">
@@ -8257,8 +8257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8282,12 +8282,12 @@
         <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
         <v>215</v>
@@ -8324,16 +8324,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_1_site_202105.xlsx
+++ b/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_1_site_202105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2CD5DB-9382-45A5-8FB8-9872889EDAA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F137450-5462-4A60-AD67-278444480F05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,9 +678,6 @@
     <t>site_list = ${c_site}</t>
   </si>
   <si>
-    <t>ci_lf_pretas_1_site_202105_v2</t>
-  </si>
-  <si>
     <t>Autre</t>
   </si>
   <si>
@@ -954,7 +951,10 @@
     <t>Type Dest</t>
   </si>
   <si>
-    <t>(May 2021) 1. Côte d'Ivoire - Pre TAS FL Fromulaire Site V2</t>
+    <t>(May 2021) 1. Côte d'Ivoire - Pre TAS FL Fromulaire Site V3</t>
+  </si>
+  <si>
+    <t>ci_lf_pretas_1_site_202105_v3</t>
   </si>
 </sst>
 </file>
@@ -1627,11 +1627,11 @@
         <v>205</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="8"/>
@@ -1639,7 +1639,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="4" t="s">
@@ -1656,22 +1656,22 @@
         <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" t="s">
         <v>284</v>
       </c>
-      <c r="F9" t="s">
-        <v>285</v>
-      </c>
       <c r="K9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M9" t="s">
         <v>56</v>
@@ -1679,25 +1679,25 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" t="s">
         <v>290</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>285</v>
+      </c>
+      <c r="K10" t="s">
         <v>300</v>
-      </c>
-      <c r="E10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F10" t="s">
-        <v>286</v>
-      </c>
-      <c r="K10" t="s">
-        <v>301</v>
       </c>
       <c r="M10" t="s">
         <v>56</v>
@@ -1795,14 +1795,14 @@
         <v>45</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -4275,13 +4275,13 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="12" t="s">
@@ -4296,13 +4296,13 @@
         <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="12" t="s">
@@ -4317,13 +4317,13 @@
         <v>44</v>
       </c>
       <c r="B126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="12" t="s">
@@ -4338,13 +4338,13 @@
         <v>44</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C127" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D127" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="12" t="s">
@@ -4359,13 +4359,13 @@
         <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C128" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D128" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="12" t="s">
@@ -4380,13 +4380,13 @@
         <v>44</v>
       </c>
       <c r="B129" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C129" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D129" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="12" t="s">
@@ -4401,13 +4401,13 @@
         <v>44</v>
       </c>
       <c r="B130" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C130" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D130" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="12" t="s">
@@ -4422,13 +4422,13 @@
         <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="12" t="s">
@@ -4443,13 +4443,13 @@
         <v>44</v>
       </c>
       <c r="B132" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C132" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D132" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="12" t="s">
@@ -4464,13 +4464,13 @@
         <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="12" t="s">
@@ -4485,13 +4485,13 @@
         <v>44</v>
       </c>
       <c r="B134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="12" t="s">
@@ -4506,13 +4506,13 @@
         <v>44</v>
       </c>
       <c r="B135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="12" t="s">
@@ -4527,13 +4527,13 @@
         <v>44</v>
       </c>
       <c r="B136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="12" t="s">
@@ -4548,13 +4548,13 @@
         <v>44</v>
       </c>
       <c r="B137" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C137" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D137" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="12" t="s">
@@ -4569,13 +4569,13 @@
         <v>44</v>
       </c>
       <c r="B138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="12" t="s">
@@ -4590,13 +4590,13 @@
         <v>44</v>
       </c>
       <c r="B139" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C139" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D139" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="12" t="s">
@@ -4611,13 +4611,13 @@
         <v>44</v>
       </c>
       <c r="B140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="12" t="s">
@@ -4632,13 +4632,13 @@
         <v>44</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="12" t="s">
@@ -4653,13 +4653,13 @@
         <v>44</v>
       </c>
       <c r="B142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="12" t="s">
@@ -4674,13 +4674,13 @@
         <v>44</v>
       </c>
       <c r="B143" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D143" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="12" t="s">
@@ -4695,13 +4695,13 @@
         <v>44</v>
       </c>
       <c r="B144" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C144" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D144" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="12" t="s">
@@ -4716,13 +4716,13 @@
         <v>44</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="12" t="s">
@@ -4737,13 +4737,13 @@
         <v>44</v>
       </c>
       <c r="B146" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C146" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D146" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="12" t="s">
@@ -4758,13 +4758,13 @@
         <v>44</v>
       </c>
       <c r="B147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="12" t="s">
@@ -4779,13 +4779,13 @@
         <v>44</v>
       </c>
       <c r="B148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="12" t="s">
@@ -4800,13 +4800,13 @@
         <v>44</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="12" t="s">
@@ -4821,13 +4821,13 @@
         <v>44</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C150" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D150" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="12" t="s">
@@ -4842,13 +4842,13 @@
         <v>44</v>
       </c>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C151" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D151" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="12" t="s">
@@ -4863,13 +4863,13 @@
         <v>44</v>
       </c>
       <c r="B152" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C152" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D152" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="12" t="s">
@@ -4884,13 +4884,13 @@
         <v>44</v>
       </c>
       <c r="B153" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C153" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D153" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="12" t="s">
@@ -4905,13 +4905,13 @@
         <v>44</v>
       </c>
       <c r="B154" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C154" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D154" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="12" t="s">
@@ -4926,13 +4926,13 @@
         <v>44</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D155" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="12" t="s">
@@ -4947,13 +4947,13 @@
         <v>44</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C156" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D156" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="12" t="s">
@@ -4968,13 +4968,13 @@
         <v>44</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C157" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D157" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="12" t="s">
@@ -4989,13 +4989,13 @@
         <v>44</v>
       </c>
       <c r="B158" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C158" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D158" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="12" t="s">
@@ -5010,13 +5010,13 @@
         <v>44</v>
       </c>
       <c r="B159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="12" t="s">
@@ -5031,13 +5031,13 @@
         <v>44</v>
       </c>
       <c r="B160" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C160" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D160" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="12" t="s">
@@ -5052,13 +5052,13 @@
         <v>44</v>
       </c>
       <c r="B161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="12" t="s">
@@ -5073,13 +5073,13 @@
         <v>44</v>
       </c>
       <c r="B162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="12" t="s">
@@ -5094,13 +5094,13 @@
         <v>44</v>
       </c>
       <c r="B163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="12" t="s">
@@ -5115,13 +5115,13 @@
         <v>44</v>
       </c>
       <c r="B164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="12" t="s">
@@ -5136,13 +5136,13 @@
         <v>44</v>
       </c>
       <c r="B165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="12" t="s">
@@ -5157,13 +5157,13 @@
         <v>44</v>
       </c>
       <c r="B166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="12" t="s">
@@ -5178,13 +5178,13 @@
         <v>44</v>
       </c>
       <c r="B167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="12" t="s">
@@ -5199,13 +5199,13 @@
         <v>44</v>
       </c>
       <c r="B168" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C168" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D168" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="12" t="s">
@@ -5220,13 +5220,13 @@
         <v>44</v>
       </c>
       <c r="B169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="12" t="s">
@@ -5241,13 +5241,13 @@
         <v>44</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="12" t="s">
@@ -5262,13 +5262,13 @@
         <v>44</v>
       </c>
       <c r="B171" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C171" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D171" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="12" t="s">
@@ -5283,13 +5283,13 @@
         <v>44</v>
       </c>
       <c r="B172" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C172" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D172" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="12" t="s">
@@ -5304,13 +5304,13 @@
         <v>44</v>
       </c>
       <c r="B173" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C173" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D173" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="12" t="s">
@@ -5325,13 +5325,13 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C174" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D174" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="12" t="s">
@@ -5346,13 +5346,13 @@
         <v>44</v>
       </c>
       <c r="B175" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C175" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D175" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="12" t="s">
@@ -5367,13 +5367,13 @@
         <v>44</v>
       </c>
       <c r="B176" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C176" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D176" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="12" t="s">
@@ -5388,13 +5388,13 @@
         <v>44</v>
       </c>
       <c r="B177" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C177" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D177" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="12" t="s">
@@ -5409,13 +5409,13 @@
         <v>44</v>
       </c>
       <c r="B178" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C178" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D178" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="12" t="s">
@@ -5430,13 +5430,13 @@
         <v>44</v>
       </c>
       <c r="B179" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C179" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D179" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="12" t="s">
@@ -5451,13 +5451,13 @@
         <v>44</v>
       </c>
       <c r="B180" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C180" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D180" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="12" t="s">
@@ -5472,13 +5472,13 @@
         <v>44</v>
       </c>
       <c r="B181" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C181" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D181" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="12" t="s">
@@ -5493,13 +5493,13 @@
         <v>44</v>
       </c>
       <c r="B182" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C182" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D182" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E182" s="7"/>
       <c r="F182" s="12" t="s">
@@ -5514,13 +5514,13 @@
         <v>44</v>
       </c>
       <c r="B183" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C183" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D183" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="12" t="s">
@@ -5535,13 +5535,13 @@
         <v>44</v>
       </c>
       <c r="B184" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C184" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D184" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="12" t="s">
@@ -5556,13 +5556,13 @@
         <v>44</v>
       </c>
       <c r="B185" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C185" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D185" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="12" t="s">
@@ -5577,13 +5577,13 @@
         <v>44</v>
       </c>
       <c r="B186" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C186" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D186" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="12" t="s">
@@ -5598,13 +5598,13 @@
         <v>44</v>
       </c>
       <c r="B187" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C187" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D187" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E187" s="7"/>
       <c r="F187" s="12" t="s">
@@ -5619,13 +5619,13 @@
         <v>44</v>
       </c>
       <c r="B188" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C188" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D188" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E188" s="7"/>
       <c r="F188" s="12" t="s">
@@ -5640,13 +5640,13 @@
         <v>44</v>
       </c>
       <c r="B189" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C189" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D189" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="12" t="s">
@@ -6860,16 +6860,16 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B258" s="7">
         <v>101</v>
       </c>
       <c r="C258" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D258" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E258" s="7"/>
       <c r="F258" s="12" t="s">
@@ -6881,16 +6881,16 @@
     </row>
     <row r="259" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B259" s="7">
         <v>102</v>
       </c>
       <c r="C259" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D259" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E259" s="7"/>
       <c r="F259" s="12" t="s">
@@ -6902,16 +6902,16 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B260" s="7">
         <v>103</v>
       </c>
       <c r="C260" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D260" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E260" s="7"/>
       <c r="F260" s="12" t="s">
@@ -6923,16 +6923,16 @@
     </row>
     <row r="261" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B261" s="7">
         <v>104</v>
       </c>
       <c r="C261" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D261" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E261" s="7"/>
       <c r="F261" s="12" t="s">
@@ -6944,16 +6944,16 @@
     </row>
     <row r="262" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B262" s="7">
         <v>105</v>
       </c>
       <c r="C262" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D262" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E262" s="7"/>
       <c r="F262" s="12" t="s">
@@ -6965,16 +6965,16 @@
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B263" s="7">
         <v>106</v>
       </c>
       <c r="C263" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D263" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E263" s="7"/>
       <c r="F263" s="12" t="s">
@@ -6986,16 +6986,16 @@
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B264" s="7">
         <v>107</v>
       </c>
       <c r="C264" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D264" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E264" s="7"/>
       <c r="F264" s="12" t="s">
@@ -7007,16 +7007,16 @@
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B265" s="7">
         <v>108</v>
       </c>
       <c r="C265" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D265" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E265" s="7"/>
       <c r="F265" s="12" t="s">
@@ -7028,16 +7028,16 @@
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B266" s="7">
         <v>109</v>
       </c>
       <c r="C266" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D266" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E266" s="7"/>
       <c r="F266" s="12" t="s">
@@ -7049,16 +7049,16 @@
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B267" s="7">
         <v>110</v>
       </c>
       <c r="C267" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D267" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E267" s="7"/>
       <c r="F267" s="12" t="s">
@@ -7070,16 +7070,16 @@
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B268" s="7">
         <v>111</v>
       </c>
       <c r="C268" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D268" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E268" s="7"/>
       <c r="F268" s="12" t="s">
@@ -7091,16 +7091,16 @@
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B269" s="7">
         <v>112</v>
       </c>
       <c r="C269" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D269" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E269" s="7"/>
       <c r="F269" s="12" t="s">
@@ -7112,16 +7112,16 @@
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B270" s="7">
         <v>113</v>
       </c>
       <c r="C270" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D270" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E270" s="7"/>
       <c r="F270" s="12" t="s">
@@ -7133,16 +7133,16 @@
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B271" s="7">
         <v>114</v>
       </c>
       <c r="C271" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D271" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E271" s="7"/>
       <c r="F271" s="12" t="s">
@@ -7154,16 +7154,16 @@
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B272" s="7">
         <v>115</v>
       </c>
       <c r="C272" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D272" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E272" s="7"/>
       <c r="F272" s="12" t="s">
@@ -7175,16 +7175,16 @@
     </row>
     <row r="273" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B273" s="7">
         <v>116</v>
       </c>
       <c r="C273" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D273" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E273" s="7"/>
       <c r="F273" s="12" t="s">
@@ -7196,16 +7196,16 @@
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B274" s="7">
         <v>117</v>
       </c>
       <c r="C274" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D274" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E274" s="7"/>
       <c r="F274" s="12" t="s">
@@ -7217,16 +7217,16 @@
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B275" s="7">
         <v>118</v>
       </c>
       <c r="C275" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D275" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E275" s="7"/>
       <c r="F275" s="12" t="s">
@@ -7238,16 +7238,16 @@
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B276" s="7">
         <v>119</v>
       </c>
       <c r="C276" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D276" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E276" s="7"/>
       <c r="F276" s="12" t="s">
@@ -7259,16 +7259,16 @@
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B277" s="7">
         <v>120</v>
       </c>
       <c r="C277" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D277" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E277" s="7"/>
       <c r="F277" s="12" t="s">
@@ -7280,16 +7280,16 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B278" s="7">
         <v>121</v>
       </c>
       <c r="C278" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D278" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E278" s="7"/>
       <c r="F278" s="12" t="s">
@@ -7301,16 +7301,16 @@
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B279" s="7">
         <v>122</v>
       </c>
       <c r="C279" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D279" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E279" s="7"/>
       <c r="F279" s="12" t="s">
@@ -7322,16 +7322,16 @@
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B280" s="7">
         <v>123</v>
       </c>
       <c r="C280" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D280" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E280" s="7"/>
       <c r="F280" s="12" t="s">
@@ -7343,16 +7343,16 @@
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B281" s="7">
         <v>124</v>
       </c>
       <c r="C281" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D281" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="12" t="s">
@@ -7364,16 +7364,16 @@
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B282" s="7">
         <v>125</v>
       </c>
       <c r="C282" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D282" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E282" s="7"/>
       <c r="F282" s="12" t="s">
@@ -7385,16 +7385,16 @@
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B283" s="7">
         <v>126</v>
       </c>
       <c r="C283" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D283" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E283" s="7"/>
       <c r="F283" s="12" t="s">
@@ -7406,16 +7406,16 @@
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B284" s="7">
         <v>127</v>
       </c>
       <c r="C284" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D284" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E284" s="7"/>
       <c r="F284" s="12" t="s">
@@ -7427,16 +7427,16 @@
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B285" s="7">
         <v>128</v>
       </c>
       <c r="C285" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D285" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E285" s="7"/>
       <c r="F285" s="12" t="s">
@@ -7448,16 +7448,16 @@
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B286" s="7">
         <v>129</v>
       </c>
       <c r="C286" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D286" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E286" s="7"/>
       <c r="F286" s="12" t="s">
@@ -7469,16 +7469,16 @@
     </row>
     <row r="287" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B287" s="7">
         <v>130</v>
       </c>
       <c r="C287" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D287" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E287" s="7"/>
       <c r="F287" s="12" t="s">
@@ -7490,16 +7490,16 @@
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B288" s="7">
         <v>131</v>
       </c>
       <c r="C288" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D288" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E288" s="7"/>
       <c r="F288" s="12" t="s">
@@ -7511,16 +7511,16 @@
     </row>
     <row r="289" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B289" s="7">
         <v>132</v>
       </c>
       <c r="C289" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D289" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E289" s="7"/>
       <c r="F289" s="12" t="s">
@@ -7532,16 +7532,16 @@
     </row>
     <row r="290" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B290" s="7">
         <v>133</v>
       </c>
       <c r="C290" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D290" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E290" s="7"/>
       <c r="F290" s="12" t="s">
@@ -7553,16 +7553,16 @@
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B291" s="7">
         <v>134</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E291" s="7"/>
       <c r="F291" s="12" t="s">
@@ -7574,16 +7574,16 @@
     </row>
     <row r="292" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B292" s="7">
         <v>135</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E292" s="7"/>
       <c r="F292" s="12" t="s">
@@ -7595,16 +7595,16 @@
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B293" s="7">
         <v>136</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E293" s="7"/>
       <c r="F293" s="12" t="s">
@@ -7616,16 +7616,16 @@
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B294" s="7">
         <v>137</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E294" s="7"/>
       <c r="F294" s="12" t="s">
@@ -7637,16 +7637,16 @@
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B295" s="7">
         <v>138</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="12" t="s">
@@ -7658,16 +7658,16 @@
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B296" s="7">
         <v>139</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="12" t="s">
@@ -7679,16 +7679,16 @@
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B297" s="7">
         <v>140</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E297" s="7"/>
       <c r="F297" s="12" t="s">
@@ -7700,16 +7700,16 @@
     </row>
     <row r="298" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B298" s="7">
         <v>141</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E298" s="7"/>
       <c r="F298" s="12" t="s">
@@ -7721,16 +7721,16 @@
     </row>
     <row r="299" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B299" s="7">
         <v>142</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E299" s="7"/>
       <c r="F299" s="12" t="s">
@@ -7742,16 +7742,16 @@
     </row>
     <row r="300" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B300" s="7">
         <v>143</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E300" s="7"/>
       <c r="F300" s="12" t="s">
@@ -7763,16 +7763,16 @@
     </row>
     <row r="301" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B301" s="7">
         <v>144</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E301" s="7"/>
       <c r="F301" s="12" t="s">
@@ -7784,16 +7784,16 @@
     </row>
     <row r="302" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B302" s="7">
         <v>145</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E302" s="7"/>
       <c r="F302" s="12" t="s">
@@ -7805,16 +7805,16 @@
     </row>
     <row r="303" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B303" s="7">
         <v>146</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E303" s="7"/>
       <c r="F303" s="12" t="s">
@@ -7826,16 +7826,16 @@
     </row>
     <row r="304" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B304" s="7">
         <v>147</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E304" s="7"/>
       <c r="F304" s="12" t="s">
@@ -7847,16 +7847,16 @@
     </row>
     <row r="305" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B305" s="7">
         <v>148</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E305" s="7"/>
       <c r="F305" s="12" t="s">
@@ -7868,16 +7868,16 @@
     </row>
     <row r="306" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B306" s="7">
         <v>149</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E306" s="7"/>
       <c r="F306" s="12" t="s">
@@ -7889,16 +7889,16 @@
     </row>
     <row r="307" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B307" s="7">
         <v>150</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E307" s="7"/>
       <c r="F307" s="12" t="s">
@@ -7910,16 +7910,16 @@
     </row>
     <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B308" s="7">
         <v>151</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E308" s="7"/>
       <c r="F308" s="12" t="s">
@@ -7931,16 +7931,16 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B309" s="7">
         <v>152</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E309" s="7"/>
       <c r="F309" s="12" t="s">
@@ -7952,16 +7952,16 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B310" s="7">
         <v>153</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E310" s="7"/>
       <c r="F310" s="12" t="s">
@@ -7973,16 +7973,16 @@
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B311" s="7">
         <v>154</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E311" s="7"/>
       <c r="F311" s="12" t="s">
@@ -7994,16 +7994,16 @@
     </row>
     <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B312" s="7">
         <v>155</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E312" s="7"/>
       <c r="F312" s="12" t="s">
@@ -8015,16 +8015,16 @@
     </row>
     <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B313" s="7">
         <v>156</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E313" s="7"/>
       <c r="F313" s="12" t="s">
@@ -8036,16 +8036,16 @@
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B314" s="7">
         <v>157</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E314" s="7"/>
       <c r="F314" s="12" t="s">
@@ -8057,16 +8057,16 @@
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B315" s="7">
         <v>158</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E315" s="7"/>
       <c r="F315" s="12" t="s">
@@ -8078,16 +8078,16 @@
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B316" s="7">
         <v>159</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E316" s="7"/>
       <c r="F316" s="12" t="s">
@@ -8099,16 +8099,16 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B317" s="7">
         <v>160</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E317" s="7"/>
       <c r="F317" s="12" t="s">
@@ -8120,16 +8120,16 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B318" s="7">
         <v>161</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E318" s="7"/>
       <c r="F318" s="12" t="s">
@@ -8141,16 +8141,16 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B319" s="7">
         <v>162</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E319" s="7"/>
       <c r="F319" s="12" t="s">
@@ -8162,16 +8162,16 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B320" s="7">
         <v>163</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E320" s="7"/>
       <c r="F320" s="12" t="s">
@@ -8183,16 +8183,16 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B321" s="7">
         <v>164</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E321" s="7"/>
       <c r="F321" s="12" t="s">
@@ -8204,16 +8204,16 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B322" s="7">
         <v>165</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E322" s="7"/>
       <c r="F322" s="12" t="s">
@@ -8225,16 +8225,16 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B323" s="7">
         <v>166</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E323" s="7"/>
       <c r="F323" s="12" t="s">
@@ -8258,7 +8258,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8282,15 +8282,15 @@
         <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" t="s">
         <v>307</v>
-      </c>
-      <c r="B2" t="s">
-        <v>215</v>
       </c>
       <c r="C2">
         <v>20210511</v>
@@ -8324,16 +8324,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_1_site_202105.xlsx
+++ b/LF/PreTAS/Ivory Coast/May 2021/ci_lf_pretas_1_site_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F137450-5462-4A60-AD67-278444480F05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28274B6A-928A-4259-9CE5-891EEE0CEA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -234,9 +234,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>Nom et contact du chef village</t>
-  </si>
-  <si>
     <t>Le chef de village consent-il à la mise en oeuvre de cette enquête ?</t>
   </si>
   <si>
@@ -951,10 +948,13 @@
     <t>Type Dest</t>
   </si>
   <si>
-    <t>(May 2021) 1. Côte d'Ivoire - Pre TAS FL Fromulaire Site V3</t>
-  </si>
-  <si>
-    <t>ci_lf_pretas_1_site_202105_v3</t>
+    <t>ci_lf_pretas_1_site_202105_v4</t>
+  </si>
+  <si>
+    <t>(May 2021) 1. Côte d'Ivoire - Pre TAS FL Formulaire Site V4</t>
+  </si>
+  <si>
+    <t>Nom du chef village</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1381,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>58</v>
@@ -1494,17 +1494,17 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -1546,22 +1546,22 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -1592,17 +1592,17 @@
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="8"/>
@@ -1616,22 +1616,22 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="8"/>
@@ -1639,7 +1639,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="4" t="s">
@@ -1648,7 +1648,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1656,22 +1656,22 @@
         <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" t="s">
         <v>283</v>
       </c>
-      <c r="F9" t="s">
-        <v>284</v>
-      </c>
       <c r="K9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M9" t="s">
         <v>56</v>
@@ -1679,31 +1679,31 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" t="s">
         <v>289</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>284</v>
+      </c>
+      <c r="K10" t="s">
         <v>299</v>
-      </c>
-      <c r="E10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F10" t="s">
-        <v>285</v>
-      </c>
-      <c r="K10" t="s">
-        <v>300</v>
       </c>
       <c r="M10" t="s">
         <v>56</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1726,14 +1726,14 @@
         <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8"/>
@@ -1767,14 +1767,14 @@
         <v>45</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1795,14 +1795,14 @@
         <v>45</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="10"/>
       <c r="M16" s="4" t="s">
@@ -1939,8 +1939,8 @@
   <dimension ref="A1:H323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A258" sqref="A258:F323"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B320" sqref="B320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1966,7 +1966,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>42</v>
@@ -1975,7 +1975,7 @@
         <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2017,16 +2017,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5"/>
@@ -2034,16 +2034,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
@@ -2051,16 +2051,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
@@ -2068,16 +2068,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
@@ -2085,16 +2085,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>
@@ -2102,16 +2102,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
@@ -2119,16 +2119,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="5"/>
@@ -2136,16 +2136,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="5"/>
@@ -2153,16 +2153,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="5"/>
@@ -2170,16 +2170,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="5"/>
@@ -2187,16 +2187,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="5"/>
@@ -2204,16 +2204,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="5"/>
@@ -2221,16 +2221,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="5"/>
@@ -2238,16 +2238,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="5"/>
@@ -2255,16 +2255,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="5"/>
@@ -2284,16 +2284,16 @@
         <v>42</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2301,16 +2301,16 @@
         <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2318,16 +2318,16 @@
         <v>42</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2335,16 +2335,16 @@
         <v>42</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2352,16 +2352,16 @@
         <v>42</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2369,16 +2369,16 @@
         <v>42</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2386,16 +2386,16 @@
         <v>42</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2403,16 +2403,16 @@
         <v>42</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2420,16 +2420,16 @@
         <v>42</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2437,16 +2437,16 @@
         <v>42</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2454,16 +2454,16 @@
         <v>42</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2471,16 +2471,16 @@
         <v>42</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2488,16 +2488,16 @@
         <v>42</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2505,16 +2505,16 @@
         <v>42</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2522,16 +2522,16 @@
         <v>42</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2539,16 +2539,16 @@
         <v>42</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2556,16 +2556,16 @@
         <v>42</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2573,16 +2573,16 @@
         <v>42</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2590,16 +2590,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2607,16 +2607,16 @@
         <v>42</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2624,16 +2624,16 @@
         <v>42</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2641,16 +2641,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2658,16 +2658,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2675,16 +2675,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2692,16 +2692,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2709,16 +2709,16 @@
         <v>42</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2726,16 +2726,16 @@
         <v>42</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2743,16 +2743,16 @@
         <v>42</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2760,16 +2760,16 @@
         <v>42</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2777,16 +2777,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2794,16 +2794,16 @@
         <v>42</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2811,16 +2811,16 @@
         <v>42</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2828,16 +2828,16 @@
         <v>42</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2849,31 +2849,31 @@
     </row>
     <row r="55" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="7"/>
     </row>
@@ -2889,20 +2889,20 @@
         <v>44</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2910,20 +2910,20 @@
         <v>44</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2931,20 +2931,20 @@
         <v>44</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2952,20 +2952,20 @@
         <v>44</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2973,20 +2973,20 @@
         <v>44</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2994,20 +2994,20 @@
         <v>44</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3015,20 +3015,20 @@
         <v>44</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3036,20 +3036,20 @@
         <v>44</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3057,20 +3057,20 @@
         <v>44</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3078,20 +3078,20 @@
         <v>44</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3099,20 +3099,20 @@
         <v>44</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3120,20 +3120,20 @@
         <v>44</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3141,20 +3141,20 @@
         <v>44</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3162,20 +3162,20 @@
         <v>44</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3183,20 +3183,20 @@
         <v>44</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3204,20 +3204,20 @@
         <v>44</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3225,20 +3225,20 @@
         <v>44</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3246,20 +3246,20 @@
         <v>44</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3267,20 +3267,20 @@
         <v>44</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3288,20 +3288,20 @@
         <v>44</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3309,20 +3309,20 @@
         <v>44</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3330,20 +3330,20 @@
         <v>44</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3351,20 +3351,20 @@
         <v>44</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3372,20 +3372,20 @@
         <v>44</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3393,20 +3393,20 @@
         <v>44</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3414,20 +3414,20 @@
         <v>44</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3435,20 +3435,20 @@
         <v>44</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3456,20 +3456,20 @@
         <v>44</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3477,20 +3477,20 @@
         <v>44</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3498,20 +3498,20 @@
         <v>44</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3519,20 +3519,20 @@
         <v>44</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3540,20 +3540,20 @@
         <v>44</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3561,20 +3561,20 @@
         <v>44</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3582,20 +3582,20 @@
         <v>44</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3603,20 +3603,20 @@
         <v>44</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3624,20 +3624,20 @@
         <v>44</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3645,20 +3645,20 @@
         <v>44</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3666,20 +3666,20 @@
         <v>44</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3687,20 +3687,20 @@
         <v>44</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3708,20 +3708,20 @@
         <v>44</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3729,20 +3729,20 @@
         <v>44</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3750,20 +3750,20 @@
         <v>44</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3771,20 +3771,20 @@
         <v>44</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3792,20 +3792,20 @@
         <v>44</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3813,20 +3813,20 @@
         <v>44</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3834,20 +3834,20 @@
         <v>44</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3855,20 +3855,20 @@
         <v>44</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3876,20 +3876,20 @@
         <v>44</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3897,20 +3897,20 @@
         <v>44</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3918,20 +3918,20 @@
         <v>44</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3939,20 +3939,20 @@
         <v>44</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3960,20 +3960,20 @@
         <v>44</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3981,20 +3981,20 @@
         <v>44</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4002,20 +4002,20 @@
         <v>44</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4023,20 +4023,20 @@
         <v>44</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4044,20 +4044,20 @@
         <v>44</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4065,20 +4065,20 @@
         <v>44</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4086,20 +4086,20 @@
         <v>44</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4107,20 +4107,20 @@
         <v>44</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4128,20 +4128,20 @@
         <v>44</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4149,20 +4149,20 @@
         <v>44</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4170,20 +4170,20 @@
         <v>44</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4191,20 +4191,20 @@
         <v>44</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4212,20 +4212,20 @@
         <v>44</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4233,20 +4233,20 @@
         <v>44</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4254,20 +4254,20 @@
         <v>44</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4275,20 +4275,20 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4296,20 +4296,20 @@
         <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4317,20 +4317,20 @@
         <v>44</v>
       </c>
       <c r="B126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4338,20 +4338,20 @@
         <v>44</v>
       </c>
       <c r="B127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4359,20 +4359,20 @@
         <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4380,20 +4380,20 @@
         <v>44</v>
       </c>
       <c r="B129" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D129" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4401,20 +4401,20 @@
         <v>44</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C130" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D130" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4422,20 +4422,20 @@
         <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4443,20 +4443,20 @@
         <v>44</v>
       </c>
       <c r="B132" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C132" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D132" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4464,20 +4464,20 @@
         <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4485,20 +4485,20 @@
         <v>44</v>
       </c>
       <c r="B134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4506,20 +4506,20 @@
         <v>44</v>
       </c>
       <c r="B135" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C135" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D135" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4527,20 +4527,20 @@
         <v>44</v>
       </c>
       <c r="B136" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C136" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D136" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4548,20 +4548,20 @@
         <v>44</v>
       </c>
       <c r="B137" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C137" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D137" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4569,20 +4569,20 @@
         <v>44</v>
       </c>
       <c r="B138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4590,20 +4590,20 @@
         <v>44</v>
       </c>
       <c r="B139" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D139" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4611,20 +4611,20 @@
         <v>44</v>
       </c>
       <c r="B140" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C140" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D140" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="141" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4632,20 +4632,20 @@
         <v>44</v>
       </c>
       <c r="B141" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C141" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D141" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4653,20 +4653,20 @@
         <v>44</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C142" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D142" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4674,20 +4674,20 @@
         <v>44</v>
       </c>
       <c r="B143" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C143" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D143" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4695,20 +4695,20 @@
         <v>44</v>
       </c>
       <c r="B144" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C144" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D144" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4716,20 +4716,20 @@
         <v>44</v>
       </c>
       <c r="B145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4737,20 +4737,20 @@
         <v>44</v>
       </c>
       <c r="B146" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C146" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D146" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4758,20 +4758,20 @@
         <v>44</v>
       </c>
       <c r="B147" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D147" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4779,20 +4779,20 @@
         <v>44</v>
       </c>
       <c r="B148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4800,20 +4800,20 @@
         <v>44</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C149" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D149" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4821,20 +4821,20 @@
         <v>44</v>
       </c>
       <c r="B150" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C150" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D150" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="151" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4842,20 +4842,20 @@
         <v>44</v>
       </c>
       <c r="B151" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C151" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D151" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4863,20 +4863,20 @@
         <v>44</v>
       </c>
       <c r="B152" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C152" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D152" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="153" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4884,20 +4884,20 @@
         <v>44</v>
       </c>
       <c r="B153" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C153" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D153" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="154" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4905,20 +4905,20 @@
         <v>44</v>
       </c>
       <c r="B154" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C154" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D154" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="155" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4926,20 +4926,20 @@
         <v>44</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C155" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D155" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4947,20 +4947,20 @@
         <v>44</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C156" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D156" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="157" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4968,20 +4968,20 @@
         <v>44</v>
       </c>
       <c r="B157" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C157" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D157" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4989,20 +4989,20 @@
         <v>44</v>
       </c>
       <c r="B158" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C158" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D158" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="159" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5010,20 +5010,20 @@
         <v>44</v>
       </c>
       <c r="B159" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C159" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D159" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5031,20 +5031,20 @@
         <v>44</v>
       </c>
       <c r="B160" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C160" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D160" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5052,20 +5052,20 @@
         <v>44</v>
       </c>
       <c r="B161" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C161" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D161" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5073,20 +5073,20 @@
         <v>44</v>
       </c>
       <c r="B162" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C162" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D162" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5094,20 +5094,20 @@
         <v>44</v>
       </c>
       <c r="B163" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C163" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D163" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="164" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5115,20 +5115,20 @@
         <v>44</v>
       </c>
       <c r="B164" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C164" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D164" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5136,20 +5136,20 @@
         <v>44</v>
       </c>
       <c r="B165" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C165" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D165" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5157,20 +5157,20 @@
         <v>44</v>
       </c>
       <c r="B166" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C166" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D166" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H166" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5178,20 +5178,20 @@
         <v>44</v>
       </c>
       <c r="B167" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C167" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D167" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="168" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5199,20 +5199,20 @@
         <v>44</v>
       </c>
       <c r="B168" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C168" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D168" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="169" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5220,20 +5220,20 @@
         <v>44</v>
       </c>
       <c r="B169" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C169" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D169" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="170" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5241,20 +5241,20 @@
         <v>44</v>
       </c>
       <c r="B170" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C170" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D170" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5262,20 +5262,20 @@
         <v>44</v>
       </c>
       <c r="B171" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C171" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D171" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="172" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5283,20 +5283,20 @@
         <v>44</v>
       </c>
       <c r="B172" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C172" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D172" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H172" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="173" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5304,20 +5304,20 @@
         <v>44</v>
       </c>
       <c r="B173" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C173" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D173" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="174" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5325,20 +5325,20 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C174" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D174" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H174" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="175" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5346,20 +5346,20 @@
         <v>44</v>
       </c>
       <c r="B175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H175" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="176" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5367,20 +5367,20 @@
         <v>44</v>
       </c>
       <c r="B176" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C176" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D176" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H176" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="177" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5388,20 +5388,20 @@
         <v>44</v>
       </c>
       <c r="B177" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C177" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D177" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H177" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="178" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5409,20 +5409,20 @@
         <v>44</v>
       </c>
       <c r="B178" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C178" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D178" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H178" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="179" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5430,20 +5430,20 @@
         <v>44</v>
       </c>
       <c r="B179" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C179" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D179" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="180" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5451,20 +5451,20 @@
         <v>44</v>
       </c>
       <c r="B180" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C180" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D180" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H180" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5472,20 +5472,20 @@
         <v>44</v>
       </c>
       <c r="B181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H181" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="182" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5493,20 +5493,20 @@
         <v>44</v>
       </c>
       <c r="B182" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C182" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D182" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E182" s="7"/>
       <c r="F182" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="183" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5514,20 +5514,20 @@
         <v>44</v>
       </c>
       <c r="B183" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C183" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D183" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H183" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="184" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5535,20 +5535,20 @@
         <v>44</v>
       </c>
       <c r="B184" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C184" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D184" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H184" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="185" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5556,20 +5556,20 @@
         <v>44</v>
       </c>
       <c r="B185" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C185" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D185" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="186" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5577,20 +5577,20 @@
         <v>44</v>
       </c>
       <c r="B186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H186" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="187" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5598,20 +5598,20 @@
         <v>44</v>
       </c>
       <c r="B187" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C187" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D187" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E187" s="7"/>
       <c r="F187" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H187" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="188" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5619,20 +5619,20 @@
         <v>44</v>
       </c>
       <c r="B188" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C188" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D188" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E188" s="7"/>
       <c r="F188" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H188" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="189" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5640,20 +5640,20 @@
         <v>44</v>
       </c>
       <c r="B189" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C189" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D189" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H189" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="190" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5665,7 +5665,7 @@
     </row>
     <row r="191" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B191" s="7">
         <v>101</v>
@@ -5678,12 +5678,12 @@
       </c>
       <c r="E191" s="7"/>
       <c r="G191" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="192" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B192" s="7">
         <v>102</v>
@@ -5696,12 +5696,12 @@
       </c>
       <c r="E192" s="7"/>
       <c r="G192" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="193" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B193" s="7">
         <v>103</v>
@@ -5714,12 +5714,12 @@
       </c>
       <c r="E193" s="7"/>
       <c r="G193" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B194" s="7">
         <v>104</v>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="E194" s="7"/>
       <c r="G194" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="195" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B195" s="7">
         <v>105</v>
@@ -5750,12 +5750,12 @@
       </c>
       <c r="E195" s="7"/>
       <c r="G195" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B196" s="7">
         <v>106</v>
@@ -5768,12 +5768,12 @@
       </c>
       <c r="E196" s="7"/>
       <c r="G196" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B197" s="7">
         <v>107</v>
@@ -5786,12 +5786,12 @@
       </c>
       <c r="E197" s="7"/>
       <c r="G197" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B198" s="7">
         <v>108</v>
@@ -5804,12 +5804,12 @@
       </c>
       <c r="E198" s="7"/>
       <c r="G198" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B199" s="7">
         <v>109</v>
@@ -5822,12 +5822,12 @@
       </c>
       <c r="E199" s="7"/>
       <c r="G199" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B200" s="7">
         <v>110</v>
@@ -5840,12 +5840,12 @@
       </c>
       <c r="E200" s="7"/>
       <c r="G200" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="201" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B201" s="7">
         <v>111</v>
@@ -5858,12 +5858,12 @@
       </c>
       <c r="E201" s="7"/>
       <c r="G201" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B202" s="7">
         <v>112</v>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="E202" s="7"/>
       <c r="G202" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="203" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B203" s="7">
         <v>113</v>
@@ -5894,12 +5894,12 @@
       </c>
       <c r="E203" s="7"/>
       <c r="G203" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="204" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B204" s="7">
         <v>114</v>
@@ -5912,12 +5912,12 @@
       </c>
       <c r="E204" s="7"/>
       <c r="G204" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B205" s="7">
         <v>115</v>
@@ -5930,12 +5930,12 @@
       </c>
       <c r="E205" s="7"/>
       <c r="G205" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B206" s="7">
         <v>116</v>
@@ -5948,12 +5948,12 @@
       </c>
       <c r="E206" s="7"/>
       <c r="G206" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B207" s="7">
         <v>117</v>
@@ -5966,12 +5966,12 @@
       </c>
       <c r="E207" s="7"/>
       <c r="G207" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" s="7">
         <v>118</v>
@@ -5984,12 +5984,12 @@
       </c>
       <c r="E208" s="7"/>
       <c r="G208" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209" s="7">
         <v>119</v>
@@ -6002,12 +6002,12 @@
       </c>
       <c r="E209" s="7"/>
       <c r="G209" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="210" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="7">
         <v>120</v>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="E210" s="7"/>
       <c r="G210" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="211" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B211" s="7">
         <v>121</v>
@@ -6038,12 +6038,12 @@
       </c>
       <c r="E211" s="7"/>
       <c r="G211" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B212" s="7">
         <v>122</v>
@@ -6056,12 +6056,12 @@
       </c>
       <c r="E212" s="7"/>
       <c r="G212" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="213" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B213" s="7">
         <v>123</v>
@@ -6074,12 +6074,12 @@
       </c>
       <c r="E213" s="7"/>
       <c r="G213" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="214" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B214" s="7">
         <v>124</v>
@@ -6092,12 +6092,12 @@
       </c>
       <c r="E214" s="7"/>
       <c r="G214" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="215" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B215" s="7">
         <v>125</v>
@@ -6110,12 +6110,12 @@
       </c>
       <c r="E215" s="7"/>
       <c r="G215" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B216" s="7">
         <v>126</v>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E216" s="7"/>
       <c r="G216" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B217" s="7">
         <v>127</v>
@@ -6146,12 +6146,12 @@
       </c>
       <c r="E217" s="7"/>
       <c r="G217" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B218" s="7">
         <v>128</v>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="E218" s="7"/>
       <c r="G218" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B219" s="7">
         <v>129</v>
@@ -6182,12 +6182,12 @@
       </c>
       <c r="E219" s="7"/>
       <c r="G219" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B220" s="7">
         <v>130</v>
@@ -6200,12 +6200,12 @@
       </c>
       <c r="E220" s="7"/>
       <c r="G220" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="221" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B221" s="7">
         <v>131</v>
@@ -6218,12 +6218,12 @@
       </c>
       <c r="E221" s="7"/>
       <c r="G221" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="222" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B222" s="7">
         <v>132</v>
@@ -6236,12 +6236,12 @@
       </c>
       <c r="E222" s="7"/>
       <c r="G222" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="223" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B223" s="7">
         <v>133</v>
@@ -6254,12 +6254,12 @@
       </c>
       <c r="E223" s="7"/>
       <c r="G223" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B224" s="7">
         <v>134</v>
@@ -6272,12 +6272,12 @@
       </c>
       <c r="E224" s="7"/>
       <c r="G224" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B225" s="7">
         <v>135</v>
@@ -6290,12 +6290,12 @@
       </c>
       <c r="E225" s="7"/>
       <c r="G225" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B226" s="7">
         <v>136</v>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="E226" s="7"/>
       <c r="G226" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B227" s="7">
         <v>137</v>
@@ -6326,12 +6326,12 @@
       </c>
       <c r="E227" s="7"/>
       <c r="G227" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B228" s="7">
         <v>138</v>
@@ -6344,12 +6344,12 @@
       </c>
       <c r="E228" s="7"/>
       <c r="G228" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="229" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B229" s="7">
         <v>139</v>
@@ -6362,12 +6362,12 @@
       </c>
       <c r="E229" s="7"/>
       <c r="G229" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="230" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B230" s="7">
         <v>140</v>
@@ -6380,12 +6380,12 @@
       </c>
       <c r="E230" s="7"/>
       <c r="G230" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B231" s="7">
         <v>141</v>
@@ -6398,12 +6398,12 @@
       </c>
       <c r="E231" s="7"/>
       <c r="G231" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="232" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B232" s="7">
         <v>142</v>
@@ -6416,12 +6416,12 @@
       </c>
       <c r="E232" s="7"/>
       <c r="G232" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B233" s="7">
         <v>143</v>
@@ -6434,12 +6434,12 @@
       </c>
       <c r="E233" s="7"/>
       <c r="G233" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B234" s="7">
         <v>144</v>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="E234" s="7"/>
       <c r="G234" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B235" s="7">
         <v>145</v>
@@ -6470,12 +6470,12 @@
       </c>
       <c r="E235" s="7"/>
       <c r="G235" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="236" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B236" s="7">
         <v>146</v>
@@ -6488,12 +6488,12 @@
       </c>
       <c r="E236" s="7"/>
       <c r="G236" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B237" s="7">
         <v>147</v>
@@ -6506,12 +6506,12 @@
       </c>
       <c r="E237" s="7"/>
       <c r="G237" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B238" s="7">
         <v>148</v>
@@ -6524,12 +6524,12 @@
       </c>
       <c r="E238" s="7"/>
       <c r="G238" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B239" s="7">
         <v>149</v>
@@ -6542,12 +6542,12 @@
       </c>
       <c r="E239" s="7"/>
       <c r="G239" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B240" s="7">
         <v>150</v>
@@ -6560,12 +6560,12 @@
       </c>
       <c r="E240" s="7"/>
       <c r="G240" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="241" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B241" s="7">
         <v>151</v>
@@ -6578,12 +6578,12 @@
       </c>
       <c r="E241" s="7"/>
       <c r="G241" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B242" s="7">
         <v>152</v>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="E242" s="7"/>
       <c r="G242" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B243" s="7">
         <v>153</v>
@@ -6614,12 +6614,12 @@
       </c>
       <c r="E243" s="7"/>
       <c r="G243" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="244" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B244" s="7">
         <v>154</v>
@@ -6632,12 +6632,12 @@
       </c>
       <c r="E244" s="7"/>
       <c r="G244" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="245" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B245" s="7">
         <v>155</v>
@@ -6650,12 +6650,12 @@
       </c>
       <c r="E245" s="7"/>
       <c r="G245" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="246" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B246" s="7">
         <v>156</v>
@@ -6668,12 +6668,12 @@
       </c>
       <c r="E246" s="7"/>
       <c r="G246" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="247" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B247" s="7">
         <v>157</v>
@@ -6686,12 +6686,12 @@
       </c>
       <c r="E247" s="7"/>
       <c r="G247" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B248" s="7">
         <v>158</v>
@@ -6704,12 +6704,12 @@
       </c>
       <c r="E248" s="7"/>
       <c r="G248" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B249" s="7">
         <v>159</v>
@@ -6722,12 +6722,12 @@
       </c>
       <c r="E249" s="7"/>
       <c r="G249" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B250" s="7">
         <v>160</v>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="E250" s="7"/>
       <c r="G250" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B251" s="7">
         <v>161</v>
@@ -6758,12 +6758,12 @@
       </c>
       <c r="E251" s="7"/>
       <c r="G251" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="252" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B252" s="7">
         <v>162</v>
@@ -6776,12 +6776,12 @@
       </c>
       <c r="E252" s="7"/>
       <c r="G252" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="253" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B253" s="7">
         <v>163</v>
@@ -6794,12 +6794,12 @@
       </c>
       <c r="E253" s="7"/>
       <c r="G253" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="254" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B254" s="7">
         <v>164</v>
@@ -6812,12 +6812,12 @@
       </c>
       <c r="E254" s="7"/>
       <c r="G254" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B255" s="7">
         <v>165</v>
@@ -6830,12 +6830,12 @@
       </c>
       <c r="E255" s="7"/>
       <c r="G255" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="256" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B256" s="7">
         <v>166</v>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="E256" s="7"/>
       <c r="G256" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="257" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6860,1388 +6860,1388 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B258" s="7">
         <v>101</v>
       </c>
       <c r="C258" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D258" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E258" s="7"/>
       <c r="F258" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H258" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="259" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B259" s="7">
         <v>102</v>
       </c>
       <c r="C259" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D259" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E259" s="7"/>
       <c r="F259" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H259" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B260" s="7">
         <v>103</v>
       </c>
       <c r="C260" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D260" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E260" s="7"/>
       <c r="F260" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H260" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="261" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B261" s="7">
         <v>104</v>
       </c>
       <c r="C261" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D261" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E261" s="7"/>
       <c r="F261" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H261" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B262" s="7">
         <v>105</v>
       </c>
       <c r="C262" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D262" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E262" s="7"/>
       <c r="F262" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H262" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B263" s="7">
         <v>106</v>
       </c>
       <c r="C263" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D263" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E263" s="7"/>
       <c r="F263" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H263" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B264" s="7">
         <v>107</v>
       </c>
       <c r="C264" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D264" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E264" s="7"/>
       <c r="F264" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H264" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B265" s="7">
         <v>108</v>
       </c>
       <c r="C265" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D265" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E265" s="7"/>
       <c r="F265" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H265" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B266" s="7">
         <v>109</v>
       </c>
       <c r="C266" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D266" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E266" s="7"/>
       <c r="F266" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H266" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B267" s="7">
         <v>110</v>
       </c>
       <c r="C267" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D267" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E267" s="7"/>
       <c r="F267" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H267" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B268" s="7">
         <v>111</v>
       </c>
       <c r="C268" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D268" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E268" s="7"/>
       <c r="F268" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H268" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B269" s="7">
         <v>112</v>
       </c>
       <c r="C269" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D269" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E269" s="7"/>
       <c r="F269" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H269" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B270" s="7">
         <v>113</v>
       </c>
       <c r="C270" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D270" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E270" s="7"/>
       <c r="F270" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H270" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B271" s="7">
         <v>114</v>
       </c>
       <c r="C271" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D271" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E271" s="7"/>
       <c r="F271" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H271" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B272" s="7">
         <v>115</v>
       </c>
       <c r="C272" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D272" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E272" s="7"/>
       <c r="F272" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H272" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="273" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B273" s="7">
         <v>116</v>
       </c>
       <c r="C273" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D273" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E273" s="7"/>
       <c r="F273" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H273" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B274" s="7">
         <v>117</v>
       </c>
       <c r="C274" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D274" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E274" s="7"/>
       <c r="F274" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H274" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B275" s="7">
         <v>118</v>
       </c>
       <c r="C275" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D275" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E275" s="7"/>
       <c r="F275" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H275" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B276" s="7">
         <v>119</v>
       </c>
       <c r="C276" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D276" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E276" s="7"/>
       <c r="F276" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H276" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B277" s="7">
         <v>120</v>
       </c>
       <c r="C277" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D277" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E277" s="7"/>
       <c r="F277" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H277" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B278" s="7">
         <v>121</v>
       </c>
       <c r="C278" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D278" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E278" s="7"/>
       <c r="F278" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H278" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B279" s="7">
         <v>122</v>
       </c>
       <c r="C279" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D279" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E279" s="7"/>
       <c r="F279" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H279" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B280" s="7">
         <v>123</v>
       </c>
       <c r="C280" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D280" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E280" s="7"/>
       <c r="F280" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H280" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B281" s="7">
         <v>124</v>
       </c>
       <c r="C281" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D281" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H281" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B282" s="7">
         <v>125</v>
       </c>
       <c r="C282" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D282" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E282" s="7"/>
       <c r="F282" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H282" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B283" s="7">
         <v>126</v>
       </c>
       <c r="C283" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D283" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E283" s="7"/>
       <c r="F283" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H283" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B284" s="7">
         <v>127</v>
       </c>
       <c r="C284" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D284" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E284" s="7"/>
       <c r="F284" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H284" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B285" s="7">
         <v>128</v>
       </c>
       <c r="C285" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D285" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E285" s="7"/>
       <c r="F285" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H285" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B286" s="7">
         <v>129</v>
       </c>
       <c r="C286" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D286" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E286" s="7"/>
       <c r="F286" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H286" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="287" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B287" s="7">
         <v>130</v>
       </c>
       <c r="C287" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D287" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E287" s="7"/>
       <c r="F287" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H287" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B288" s="7">
         <v>131</v>
       </c>
       <c r="C288" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D288" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E288" s="7"/>
       <c r="F288" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H288" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="289" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B289" s="7">
         <v>132</v>
       </c>
       <c r="C289" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D289" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E289" s="7"/>
       <c r="F289" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H289" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="290" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B290" s="7">
         <v>133</v>
       </c>
       <c r="C290" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D290" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E290" s="7"/>
       <c r="F290" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H290" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B291" s="7">
         <v>134</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E291" s="7"/>
       <c r="F291" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H291" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="292" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B292" s="7">
         <v>135</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E292" s="7"/>
       <c r="F292" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H292" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="293" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B293" s="7">
         <v>136</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E293" s="7"/>
       <c r="F293" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H293" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="294" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B294" s="7">
         <v>137</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E294" s="7"/>
       <c r="F294" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H294" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B295" s="7">
         <v>138</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H295" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="296" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B296" s="7">
         <v>139</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H296" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="297" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B297" s="7">
         <v>140</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E297" s="7"/>
       <c r="F297" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H297" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="298" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B298" s="7">
         <v>141</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E298" s="7"/>
       <c r="F298" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H298" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="299" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B299" s="7">
         <v>142</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E299" s="7"/>
       <c r="F299" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H299" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="300" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B300" s="7">
         <v>143</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E300" s="7"/>
       <c r="F300" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H300" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="301" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B301" s="7">
         <v>144</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E301" s="7"/>
       <c r="F301" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H301" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="302" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B302" s="7">
         <v>145</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E302" s="7"/>
       <c r="F302" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H302" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B303" s="7">
         <v>146</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E303" s="7"/>
       <c r="F303" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H303" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="304" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B304" s="7">
         <v>147</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E304" s="7"/>
       <c r="F304" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H304" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="305" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B305" s="7">
         <v>148</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E305" s="7"/>
       <c r="F305" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H305" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="306" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B306" s="7">
         <v>149</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E306" s="7"/>
       <c r="F306" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H306" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="307" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B307" s="7">
         <v>150</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E307" s="7"/>
       <c r="F307" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H307" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B308" s="7">
         <v>151</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E308" s="7"/>
       <c r="F308" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H308" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B309" s="7">
         <v>152</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E309" s="7"/>
       <c r="F309" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H309" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B310" s="7">
         <v>153</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E310" s="7"/>
       <c r="F310" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H310" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B311" s="7">
         <v>154</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E311" s="7"/>
       <c r="F311" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H311" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B312" s="7">
         <v>155</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E312" s="7"/>
       <c r="F312" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H312" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B313" s="7">
         <v>156</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E313" s="7"/>
       <c r="F313" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H313" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B314" s="7">
         <v>157</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E314" s="7"/>
       <c r="F314" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H314" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B315" s="7">
         <v>158</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E315" s="7"/>
       <c r="F315" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H315" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B316" s="7">
         <v>159</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E316" s="7"/>
       <c r="F316" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H316" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B317" s="7">
         <v>160</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E317" s="7"/>
       <c r="F317" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H317" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B318" s="7">
         <v>161</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E318" s="7"/>
       <c r="F318" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H318" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B319" s="7">
         <v>162</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E319" s="7"/>
       <c r="F319" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H319" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B320" s="7">
         <v>163</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E320" s="7"/>
       <c r="F320" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H320" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B321" s="7">
         <v>164</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E321" s="7"/>
       <c r="F321" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H321" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B322" s="7">
         <v>165</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E322" s="7"/>
       <c r="F322" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H322" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B323" s="7">
         <v>166</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E323" s="7"/>
       <c r="F323" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H323" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -8258,7 +8258,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8282,7 +8282,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8290,7 +8290,7 @@
         <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C2">
         <v>20210511</v>
@@ -8324,16 +8324,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8341,13 +8341,13 @@
         <v>101</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8355,13 +8355,13 @@
         <v>102</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8369,13 +8369,13 @@
         <v>103</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8383,13 +8383,13 @@
         <v>104</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8397,13 +8397,13 @@
         <v>105</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8411,13 +8411,13 @@
         <v>106</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8425,13 +8425,13 @@
         <v>107</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8439,13 +8439,13 @@
         <v>108</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8453,13 +8453,13 @@
         <v>109</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8467,13 +8467,13 @@
         <v>110</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8481,13 +8481,13 @@
         <v>111</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8495,13 +8495,13 @@
         <v>112</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8509,13 +8509,13 @@
         <v>113</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8523,13 +8523,13 @@
         <v>114</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8537,13 +8537,13 @@
         <v>115</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8551,13 +8551,13 @@
         <v>116</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8565,13 +8565,13 @@
         <v>117</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8579,13 +8579,13 @@
         <v>118</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8593,13 +8593,13 @@
         <v>119</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8607,13 +8607,13 @@
         <v>120</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8621,13 +8621,13 @@
         <v>121</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -8635,13 +8635,13 @@
         <v>122</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -8649,13 +8649,13 @@
         <v>123</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -8663,13 +8663,13 @@
         <v>124</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -8677,13 +8677,13 @@
         <v>125</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -8691,13 +8691,13 @@
         <v>126</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -8705,13 +8705,13 @@
         <v>127</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -8719,13 +8719,13 @@
         <v>128</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -8733,13 +8733,13 @@
         <v>129</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -8747,13 +8747,13 @@
         <v>130</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -8761,13 +8761,13 @@
         <v>131</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8775,13 +8775,13 @@
         <v>132</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -8789,13 +8789,13 @@
         <v>133</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -8803,13 +8803,13 @@
         <v>134</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -8817,13 +8817,13 @@
         <v>135</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -8831,13 +8831,13 @@
         <v>136</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -8845,13 +8845,13 @@
         <v>137</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -8859,13 +8859,13 @@
         <v>138</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -8873,13 +8873,13 @@
         <v>139</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -8887,13 +8887,13 @@
         <v>140</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -8901,13 +8901,13 @@
         <v>141</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -8915,13 +8915,13 @@
         <v>142</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -8929,13 +8929,13 @@
         <v>143</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -8943,13 +8943,13 @@
         <v>144</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -8957,13 +8957,13 @@
         <v>145</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -8971,13 +8971,13 @@
         <v>146</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -8985,13 +8985,13 @@
         <v>147</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -8999,13 +8999,13 @@
         <v>148</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -9013,13 +9013,13 @@
         <v>149</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -9027,13 +9027,13 @@
         <v>150</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -9041,13 +9041,13 @@
         <v>151</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -9055,13 +9055,13 @@
         <v>152</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -9069,13 +9069,13 @@
         <v>153</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -9083,13 +9083,13 @@
         <v>154</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -9097,13 +9097,13 @@
         <v>155</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -9111,13 +9111,13 @@
         <v>156</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -9125,13 +9125,13 @@
         <v>157</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -9139,13 +9139,13 @@
         <v>158</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -9153,13 +9153,13 @@
         <v>159</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -9167,13 +9167,13 @@
         <v>160</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -9181,13 +9181,13 @@
         <v>161</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -9195,13 +9195,13 @@
         <v>162</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -9209,13 +9209,13 @@
         <v>163</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -9223,13 +9223,13 @@
         <v>164</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -9237,13 +9237,13 @@
         <v>165</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -9251,13 +9251,13 @@
         <v>166</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
